--- a/Migracje zagraniczne.xlsx
+++ b/Migracje zagraniczne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\Spatial econometrics\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,17 +15,15 @@
     <sheet name="Tabl. 6(23)" sheetId="30" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 6(23)'!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tabl. 6(23)'!$A$1:$C$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 6(23)'!$B$1:$C$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>W O J E W Ó D Z T W O</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Słupsk  </t>
   </si>
@@ -87,51 +85,13 @@
     <t xml:space="preserve">Sopot  </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WYSZCZEGÓLNIENIE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>SPECIFICATION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Napływ z zagranicy
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>from abroad</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TABL. 6 (23). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>MIGRACJE ZAGRANICZNE LUDNOŚCI NA POBYT STAŁY W 2018 R.</t>
-    </r>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>International_migrations</t>
   </si>
 </sst>
 </file>
@@ -341,8 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="6"/>
-      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -406,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -545,63 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -721,38 +624,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="13" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="16" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="Akcent 1" xfId="1" builtinId="29" customBuiltin="1"/>
@@ -1123,210 +1014,260 @@
   <sheetPr codeName="Arkusz8">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.75"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:3" ht="21" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="8">
+        <v>2201</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="8">
+        <v>2202</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="8">
+        <v>2203</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A6" s="8">
+        <v>2205</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="8">
+        <v>2206</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="8">
+        <v>2207</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="8">
+        <v>2208</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="8">
+        <v>2209</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="8">
+        <v>2210</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="8">
+        <v>2211</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="8">
+        <v>2212</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="8">
+        <v>2213</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="8">
+        <v>2214</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A16" s="8">
+        <v>2215</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="8">
+        <v>2216</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="8">
+        <v>2261</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="8">
+        <v>2262</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A20" s="8">
+        <v>2263</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="C20" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row r="21" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="8">
+        <v>2264</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="10.5" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="C21" s="6">
         <v>67</v>
       </c>
     </row>
+    <row r="22" spans="1:3" ht="9.9499999999999993" customHeight="1"/>
+    <row r="23" spans="1:3" ht="9.9499999999999993" customHeight="1"/>
+    <row r="24" spans="1:3" ht="10.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
+  <autoFilter ref="A1:C21">
+    <sortState ref="A2:C21">
+      <sortCondition ref="A1:A21"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1.4763779527559056" right="1.4763779527559056" top="2.0472440944881889" bottom="1.811023622047244" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
